--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\JupyterProjects\web_scraping\azlyrics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB8001-AC3C-44F6-9ECF-E334ED1FF6EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5853902-AD13-4745-8A75-ED1CA2F5A04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Tracks</t>
   </si>
@@ -28,221 +28,144 @@
     <t>Lyrics</t>
   </si>
   <si>
+    <t>Artists</t>
+  </si>
+  <si>
     <t>Albums</t>
   </si>
   <si>
     <t>Credits</t>
   </si>
   <si>
-    <t>"High Voltage" lyrics</t>
-  </si>
-  <si>
-    <t>Just do something to tell you who I am, ya know?
-[4x]
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-I've been digging into crates ever since I was living in space
-Before the rat race, before monkeys had human traits
-Mastered numerology and Big Bang theology
-Performed lobotomies with telekinetic psychology
-Invented the mic so I could start blessing it
-And chin-checking kids to make my point like an impressionist
-Many men have tried to shake us
-But I twist mic cords to double helixes and show them what I'm made of
-I buckle knees like leg braces
-Cast the spell of instrumentalness
-And all of the MCs that hate us
-So try on
-Leave you without a shoulder to cry on
-From now to infinity let icons be bygones
-I fire bomb ghostly notes haunt this
-I tried threats but moved on to a promise
-I stomp shit with or without an accomplice
-(Mixed Media)
-The stamp of approval is on this
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-Akira
-Put a kink in the backbones of clones
-With microphones
-Never satisfy my rhyme jones
-Spraying bright day
-Over what you might say
-Blood type Krylon
-Technicolor type A
-On highways ride with road rage
-I'm patient to win
-The cages of the tin
-That bounce all around
-In surround sound
-Devouring the scene
-Subliminal gangrene
-Paintings
-Overall the same thing
-Sing song karaoke copy madness
-Break bones verbally with sticks-and-stone tactics
-Fourth dimension
-Combat convention
-Write rhymes at ease while the track stands at attention (attention)
-Meant to put you away with the pencil
-Pistol, official
-16 line rhyme missile
-While you risk your all
-I pick out all your flaws
-Spin rah blah blah blah
-You can say you saw
+    <t>"Yellow Submarine" lyrics</t>
+  </si>
+  <si>
+    <t>In the town where I was born
+Lived a man who sailed to sea
+And he told us of his life
+In the land of submarines
+So we sailed up to the sun
+'Til we found the sea of green
+And we lived beneath the waves
+In our yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+And our friends are all aboard
+Many more of them live next door
+And the band begins to play
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+Full speed ahead, Mr. Boatswain, full speed ahead!
+Full speed it is, Sergeant!
+Cut the cable, drop the cable!
+Aye-aye, sir, aye-aye!
+Captain, Captain!
+As we live a life of ease (a life of ease)
+Everyone of us (everyone of us) has all we need (has all we need)
+Sky of blue (sky of blue) and sea of green (sea of green)
+In our yellow (in our yellow) submarine (submarine, ah-ha)
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The Beatles Lyrics
+</t>
+  </si>
+  <si>
+    <t>album: "Revolver" (1966)</t>
+  </si>
+  <si>
+    <t>Submit CorrectionsThanks to Jack Louis Coggins for correcting these lyrics.Writer(s): John Lennon, Paul McCartney</t>
+  </si>
+  <si>
+    <t>"Keys To The Kingdom" lyrics</t>
+  </si>
+  <si>
+    <t>[Chester Bennington:]
+No control! No surprise!
+Tossed the keys to the kingdom down that hole in my eye
+I'm my own casualty!
+I fuck up everything I see, fighting in futility!
+[Mike Shinoda and Chester Bennington:]
+We start the final war
+Tell me what's worth fighting for
+When we know there's nothing more
+Take the hand or fist
+Just to sell ourselves for this
+The path we least resist
+[Chester Bennington:]
+No control! No surprise!
+Tossed the keys to the kingdom down that hole in my eye
+I'm my own casualty!
+I fuck up everything I see, fighting in futility!
 [Mike Shinoda:]
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-High voltage
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-It's high voltage
-You can't shake the shock
-Because nobody wants it to stop
-Check it out
-This production has been run courtesy of Mixed Media, Akira, Mr. Hahn and Hybrid Theory</t>
+Uh, I give you what you came for
+This is not the same though
+Got a different method
+But I still can bring the pain so
+Y'all get that same flow
+I got that insane flow
+High as y'all can get
+You're never really in my range, though
+Yes, I'm half Anglo
+Half fried Panko
+All prime-time
+I'mma let the bass bang low
+All you fucking lames go
+Aiming at my name, know
+Careful what you shoot because you might hit what you aim for
+(Careful what you shoot because you might hit what you aim for)
+[Chester Bennington:]
+No control! No surprise!
+Tossed the keys to the kingdom down that hole in my eye
+I'm my own casualty!
+I fuck up everything I see, fighting in futility
+[Instrumental break]
+[Chester Bennington:]
+No control! No surprise!
+Tossed the keys to the kingdom down that hole in my eye
+I'm my own casualty! [2x]
+[Kid:]
+I'm not allowed to say certain things, ah!
+[Mike Shinoda:]
+Try and do...
+Try and do the other thing... real quick.</t>
   </si>
   <si>
     <t xml:space="preserve">
-Hybrid Theory Lyrics
+Linkin Park Lyrics
 </t>
   </si>
   <si>
-    <t>Submit CorrectionsThanks to BoriquafoEvar for adding these lyrics.
-Thanks to inphamous, codeman1055, Boyle1018 for correcting these lyrics.Writer(s): Mike Shinoda, Chester Charles Bennington, Joseph Hahn, Brad Delson, Robert G. Bourdon</t>
-  </si>
-  <si>
-    <t>"72 Seasons" lyrics</t>
-  </si>
-  <si>
-    <t>Feeding on the wrath of man
-Shot down
-Traumatic
-Time haunted by the past
-Long gone
-Dogmatic
-Although the die is cast
-Shot down
-Volcanic
-But what is done is done and done
-Look back
-Psychotic
-No chance before this life began
-Staring into black light
-Dominating birthright
-Wrath of man
-Leaching through
-Split in two
-Wrath of man
-Crash into
-Point of view
-Wrath of man
-Violence
-Inheritance
-Wrath of man
-Thrive upon
-Feeding on
-72 seasons gone
-Feeding on the wrath of man
-Shoot back
-Erratic
-Mad seasons take their toll
-New mask
-Chaotic
-Completely lost control
-Shoot back
-Fanatic
-Wither under looming shadow cast
-Slip back
-Narcotic
-Blinded by the ashes of the past
-Staring into black light
-Choking on the stage fright
-Wrath of man
-Leaching through
-Split in two
-Wrath of man
-Crash into
-Point of view
-Wrath of man
-Violence
-Inheritance
-Wrath of man
-Thrive upon
-Feeding on
-72 seasons gone
-Piercing through
-Cut in two
-Polarize
-Point of view
-Crash into
-Paralyze
-Feeding on the wrath of man
-Man down
-Barbaric
-Quick fire machine gun thoughts
-Deep seed
-Stigmatic
-Some have and some have not
-Man down
-Demonic
-No mercy from the ghost within
-Turn back
-Hypnotic
-There's breathing out but not back in
-Staring into black light
-Permanently midnight
-Wrath of man
-Leaching through
-Split in two
-Wrath of man
-Crash into
-Point of view
-Wrath of man
-Violence
-Inheritance
-Wrath of man
-Thrive upon
-Feeding on
-72 seasons gone
-Feeding on the wrath of man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Metallica Lyrics
-</t>
-  </si>
-  <si>
-    <t>Submit CorrectionsThanks to ELISSON for adding these lyrics.Writer(s): Kirk Hammett, James Hetfield, Lars Ulrich</t>
+    <t>album: "The Hunting Party" (2014)</t>
+  </si>
+  <si>
+    <t>Submit CorrectionsThanks to Aleck M for adding these lyrics.
+Thanks to Tristan, Lpadrian6, Jake, uwotm8fightmeirl for correcting these lyrics.Writer(s): Mike Shinoda, Chester Charles Bennington, Joseph Hahn, Brad Delson, Robert G. Bourdon, David Farrell</t>
+  </si>
+  <si>
+    <t>"1822!" lyrics</t>
+  </si>
+  <si>
+    <t>[Speech]
+[John:] This is a Dorsey Burnette number, brother of Johnny Burnette, called "Lonesome Tears in My Eyes," recorded on their very first LP in 1822! [*all laugh*] Ha!</t>
+  </si>
+  <si>
+    <t>compilation: "Live At The BBC. Disk 2" (1994)</t>
+  </si>
+  <si>
+    <t>Submit Corrections</t>
   </si>
 </sst>
 </file>
@@ -605,20 +528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="66.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="5" width="66.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,39 +549,68 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -1,194 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\JupyterProjects\web_scraping\azlyrics\datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5853902-AD13-4745-8A75-ED1CA2F5A04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Tracks</t>
-  </si>
-  <si>
-    <t>Lyrics</t>
-  </si>
-  <si>
-    <t>Artists</t>
-  </si>
-  <si>
-    <t>Albums</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>"Yellow Submarine" lyrics</t>
-  </si>
-  <si>
-    <t>In the town where I was born
-Lived a man who sailed to sea
-And he told us of his life
-In the land of submarines
-So we sailed up to the sun
-'Til we found the sea of green
-And we lived beneath the waves
-In our yellow submarine
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-And our friends are all aboard
-Many more of them live next door
-And the band begins to play
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-Full speed ahead, Mr. Boatswain, full speed ahead!
-Full speed it is, Sergeant!
-Cut the cable, drop the cable!
-Aye-aye, sir, aye-aye!
-Captain, Captain!
-As we live a life of ease (a life of ease)
-Everyone of us (everyone of us) has all we need (has all we need)
-Sky of blue (sky of blue) and sea of green (sea of green)
-In our yellow (in our yellow) submarine (submarine, ah-ha)
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-We all live in a yellow submarine
-Yellow submarine, yellow submarine
-We all live in a yellow submarine
-Yellow submarine, yellow submarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The Beatles Lyrics
-</t>
-  </si>
-  <si>
-    <t>album: "Revolver" (1966)</t>
-  </si>
-  <si>
-    <t>Submit CorrectionsThanks to Jack Louis Coggins for correcting these lyrics.Writer(s): John Lennon, Paul McCartney</t>
-  </si>
-  <si>
-    <t>"Keys To The Kingdom" lyrics</t>
-  </si>
-  <si>
-    <t>[Chester Bennington:]
-No control! No surprise!
-Tossed the keys to the kingdom down that hole in my eye
-I'm my own casualty!
-I fuck up everything I see, fighting in futility!
-[Mike Shinoda and Chester Bennington:]
-We start the final war
-Tell me what's worth fighting for
-When we know there's nothing more
-Take the hand or fist
-Just to sell ourselves for this
-The path we least resist
-[Chester Bennington:]
-No control! No surprise!
-Tossed the keys to the kingdom down that hole in my eye
-I'm my own casualty!
-I fuck up everything I see, fighting in futility!
-[Mike Shinoda:]
-Uh, I give you what you came for
-This is not the same though
-Got a different method
-But I still can bring the pain so
-Y'all get that same flow
-I got that insane flow
-High as y'all can get
-You're never really in my range, though
-Yes, I'm half Anglo
-Half fried Panko
-All prime-time
-I'mma let the bass bang low
-All you fucking lames go
-Aiming at my name, know
-Careful what you shoot because you might hit what you aim for
-(Careful what you shoot because you might hit what you aim for)
-[Chester Bennington:]
-No control! No surprise!
-Tossed the keys to the kingdom down that hole in my eye
-I'm my own casualty!
-I fuck up everything I see, fighting in futility
-[Instrumental break]
-[Chester Bennington:]
-No control! No surprise!
-Tossed the keys to the kingdom down that hole in my eye
-I'm my own casualty! [2x]
-[Kid:]
-I'm not allowed to say certain things, ah!
-[Mike Shinoda:]
-Try and do...
-Try and do the other thing... real quick.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Linkin Park Lyrics
-</t>
-  </si>
-  <si>
-    <t>album: "The Hunting Party" (2014)</t>
-  </si>
-  <si>
-    <t>Submit CorrectionsThanks to Aleck M for adding these lyrics.
-Thanks to Tristan, Lpadrian6, Jake, uwotm8fightmeirl for correcting these lyrics.Writer(s): Mike Shinoda, Chester Charles Bennington, Joseph Hahn, Brad Delson, Robert G. Bourdon, David Farrell</t>
-  </si>
-  <si>
-    <t>"1822!" lyrics</t>
-  </si>
-  <si>
-    <t>[Speech]
-[John:] This is a Dorsey Burnette number, brother of Johnny Burnette, called "Lonesome Tears in My Eyes," recorded on their very first LP in 1822! [*all laugh*] Ha!</t>
-  </si>
-  <si>
-    <t>compilation: "Live At The BBC. Disk 2" (1994)</t>
-  </si>
-  <si>
-    <t>Submit Corrections</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -203,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -527,90 +420,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tracks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lyrics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Artists</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"Born Again" lyrics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>As you look through my window
+Deep into my room
+At the tapestries all faded
+Their vague and distant glories
+Concealed in the gloom
+The icy fingers of forgotten passions
+Softly brushing my lips
+At the tips of my primitive soul
+As you look through my door
+Deep into my room
+Can you feel the mighty wall of power
+It's waiting waiting in the glow
+The distant shadows of forgotten champions
+Those who live in me still
+And will rise when we challenge and kill
+Born again
+You'll be born again
+Look at this prince of evil
+Fighting for your mind
+Fighting all priests of shame
+For the thrust of my challenge is aimed
+At the hearts of mutant gods
+Who think we're all the same
+They're controlling our minds
+And they use us for fortune and fame
+As you look through my window
+Deep into my room
+At your future and freedom
+The grey and plastic retards all floating in circles
+And as you taste the fruits of new sensations
+Softly brushing your lips
+As we rise when we challenge and kill
+Born again
+You'll be born again
+If you want to be a king for a day
+Just do what I say
+Everybody's got to think like a hunter
+Just search for your pray
+Be alive through the night and the day
+Just do it my way</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Black Sabbath Lyrics
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>album: "Born Again" (1983)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Submit CorrectionsWriter(s): Ian Gillan, Tony Iommi, Geezer Butler, Bill Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"Slow Down" lyrics</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Well, come on pretty baby, won't you walk with me?
+Come on, pretty baby, won't you talk with me?
+Come on pretty baby, give me one more chance
+Try to save our romance!
+Slow down, baby, now you're movin' way too fast
+You gotta gimme little lovin', gimme little lovin'
+Ow! If you want our love to last
+Well, I used to walk you home, baby, after school
+Carry your books home, too
+But now you got a boyfriend down the street
+Baby what you're tryin' to do?
+You better slow down!
+Baby, now you're movin' way too fast
+You gotta gimme little lovin', gimme little lovin'
+Bbbbb! If you want our love to last
+Well you know that I love you, tell the world I do
+Come on, pretty baby, why can't you be true?
+I need your lovin' baby, oh so bad
+The best little woman I ever had
+Slow down, baby, now you're movin' way too fast
+You gotta gimme little lovin', gimme little lovin'
+Ow! If you want our love to last</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Beatles Lyrics
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>album: "Past Masters. Volume One" (1988)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Submit CorrectionsThanks to Mark Siebert for correcting these lyrics.Writer(s): Larry Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"Flick Of The Switch" lyrics</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Well there's a love goin' down on mine
+Suicidal voltage line
+She sends signals out of distress
+She devil, she evil
+She got you reelin' on a rockin' machine
+With a flick of the switch
+With a flick of the switch, she'll blow you sky high
+With a flick of the switch
+With a flick of the switch, she can satisfy
+She gonna blow you all sky high
+Flash the eye, electrify
+A power force you should feel
+She devil, she evil
+She get you screamin' on a lightnin' machine
+With a flick of the switch
+With a flick of the switch, she'll blow you sky high
+With a flick of the switch
+With a flick of the switch, she can satisfy
+Give you pain, blow your brain
+Flick the switch, flick the switch
+With a flick of the switch, she'll blow you sky high
+With a flick of the switch, she can satisfy
+With a flick of the switch, yeah, gonna burn you down
+With a flick of the switch, razed to the ground
+With a flick of the switch 
+With a flick of the switch 
+With a flick of the switch, she gonna give you pain
+With a flick of the switch, she gonna blow your brain
+Blow your brain
+She gonna put the light out on you</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+AC/DC Lyrics
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>album: "Flick Of The Switch" (1983)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Submit CorrectionsWriter(s): Angus Young, Malcolm Young, Brian Johnson</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -466,68 +466,63 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"Born Again" lyrics</t>
+          <t>"Bigger Stronger" lyrics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>As you look through my window
-Deep into my room
-At the tapestries all faded
-Their vague and distant glories
-Concealed in the gloom
-The icy fingers of forgotten passions
-Softly brushing my lips
-At the tips of my primitive soul
-As you look through my door
-Deep into my room
-Can you feel the mighty wall of power
-It's waiting waiting in the glow
-The distant shadows of forgotten champions
-Those who live in me still
-And will rise when we challenge and kill
-Born again
-You'll be born again
-Look at this prince of evil
-Fighting for your mind
-Fighting all priests of shame
-For the thrust of my challenge is aimed
-At the hearts of mutant gods
-Who think we're all the same
-They're controlling our minds
-And they use us for fortune and fame
-As you look through my window
-Deep into my room
-At your future and freedom
-The grey and plastic retards all floating in circles
-And as you taste the fruits of new sensations
-Softly brushing your lips
-As we rise when we challenge and kill
-Born again
-You'll be born again
-If you want to be a king for a day
-Just do what I say
-Everybody's got to think like a hunter
-Just search for your pray
-Be alive through the night and the day
-Just do it my way</t>
+          <t>I wanna be bigger, stronger, drive a faster car
+To take me anywhere in seconds
+To take me anywhere I wanna go
+And drive around a faster car
+I will settle for nothing less
+I will settle for nothing less
+I wanna be bigger, stronger, drive a faster car
+At the touch of a button
+I can go anywhere I wanna go
+And drive around a faster car
+I will settle for nothing less
+I will settle for nothing less
+I think I want to change my altitude
+I think I want to change my oxygen
+I think I want to change my air
+My atmosphere
+I wanna recharge
+I wanna be bigger, stronger, drive a faster car
+To take me anywhere in seconds
+To take me anywhere I wanna go
+And drive around my faster car
+I will settle for nothing less
+I will settle for nothing less
+I think I need to change my attitude
+I think I want to change my oxygen
+I think I want to change my air
+My atmosphere
+I wanna recharge
+Bigger and better
+Bigger and better
+Bigger and better
+Bigger and better
+Bigger, stronger, drive a faster car
+At the touch of a button
+I can go anywhere I wanna go</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Black Sabbath Lyrics
+Coldplay Lyrics
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>album: "Born Again" (1983)</t>
+          <t>EP: "The Blue Room" (1999)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Submit CorrectionsWriter(s): Ian Gillan, Tony Iommi, Geezer Butler, Bill Ward</t>
+          <t>Submit CorrectionsWriter(s): Jonathan Mark Buckland, Christopher Anthony John Martin, William Champion, Guy Rupert Berryman</t>
         </is>
       </c>
     </row>
@@ -537,50 +532,54 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"Slow Down" lyrics</t>
+          <t>"Here Comes The Sun" lyrics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Well, come on pretty baby, won't you walk with me?
-Come on, pretty baby, won't you talk with me?
-Come on pretty baby, give me one more chance
-Try to save our romance!
-Slow down, baby, now you're movin' way too fast
-You gotta gimme little lovin', gimme little lovin'
-Ow! If you want our love to last
-Well, I used to walk you home, baby, after school
-Carry your books home, too
-But now you got a boyfriend down the street
-Baby what you're tryin' to do?
-You better slow down!
-Baby, now you're movin' way too fast
-You gotta gimme little lovin', gimme little lovin'
-Bbbbb! If you want our love to last
-Well you know that I love you, tell the world I do
-Come on, pretty baby, why can't you be true?
-I need your lovin' baby, oh so bad
-The best little woman I ever had
-Slow down, baby, now you're movin' way too fast
-You gotta gimme little lovin', gimme little lovin'
-Ow! If you want our love to last</t>
+          <t>I'm gonna lift your spirits up
+You feel it rushing through your blood, yeah
+I'm gonna lift your spirits up
+You'll be okay, here comes the sun
+I'm gonna lift your spirits up
+You feel it rushing through your blood
+I'm gonna lift your spirits up
+You'll be okay, here comes the sun
+You'll be okay, here comes the sun
+You'll be okay, here comes the sun
+You'll be okay, here comes the sun
+I'm gonna lift
+You feel it rushing, hey
+I'm gonna lift
+You'll be okay, here comes the sun
+I'm gonna lift your spirits up
+You feel it rushing through your blood
+I'm gonna lift your spirits up
+You'll be okay, here comes the sun
+I'm gonna lift your spirits up
+You feel it rushing through your blood
+I'm gonna lift your spirits up
+You'll be okay, here comes the sun
+You'll be okay, here comes the sun
+You'll be okay, here comes the sun
+You'll be okay, here comes the sun</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Beatles Lyrics
+Mauve Lyrics
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>album: "Past Masters. Volume One" (1988)</t>
+          <t>You May Also Like</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Submit CorrectionsThanks to Mark Siebert for correcting these lyrics.Writer(s): Larry Williams</t>
+          <t>Submit CorrectionsWriter(s): Bjoern Steiner</t>
         </is>
       </c>
     </row>
@@ -590,58 +589,65 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"Flick Of The Switch" lyrics</t>
+          <t>"1984" lyrics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Well there's a love goin' down on mine
-Suicidal voltage line
-She sends signals out of distress
-She devil, she evil
-She got you reelin' on a rockin' machine
-With a flick of the switch
-With a flick of the switch, she'll blow you sky high
-With a flick of the switch
-With a flick of the switch, she can satisfy
-She gonna blow you all sky high
-Flash the eye, electrify
-A power force you should feel
-She devil, she evil
-She get you screamin' on a lightnin' machine
-With a flick of the switch
-With a flick of the switch, she'll blow you sky high
-With a flick of the switch
-With a flick of the switch, she can satisfy
-Give you pain, blow your brain
-Flick the switch, flick the switch
-With a flick of the switch, she'll blow you sky high
-With a flick of the switch, she can satisfy
-With a flick of the switch, yeah, gonna burn you down
-With a flick of the switch, razed to the ground
-With a flick of the switch 
-With a flick of the switch 
-With a flick of the switch, she gonna give you pain
-With a flick of the switch, she gonna blow your brain
-Blow your brain
-She gonna put the light out on you</t>
+          <t>Chasing dreams
+Walked too far
+Like in 1984
+Take my hand
+Let's get lost
+Like in 1984
+Cold beer and blue nights
+The band plays till sunrise
+Yeah, oh, oh
+Chasing dreams
+Walked too far
+Like in 1984
+Take my hand
+Let's get lost
+Like in 1984
+Cold beer and blue nights
+The band plays till sunrise
+Like in 1984
+Like in 1984
+Like in, like in
+Like in 1984
+Like in 1984
+Like in 1984
+Chasing dreams
+Walked too far
+Like in 1984
+Take my hand
+Let's get lost
+Like in 1984
+Cold beer and blue nights
+The band plays till sunrise
+Like in 1984
+Like in 1984
+Like in, like in
+Like in 1984
+Like in 1984
+Like in 1984</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AC/DC Lyrics
+Mauve Lyrics
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>album: "Flick Of The Switch" (1983)</t>
+          <t>You May Also Like</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Submit CorrectionsWriter(s): Angus Young, Malcolm Young, Brian Johnson</t>
+          <t>Submit CorrectionsWriter(s): Bjoern Steiner, Christian Rautzenberg, F4rgo</t>
         </is>
       </c>
     </row>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,63 +466,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"Bigger Stronger" lyrics</t>
+          <t>"In The Rain" lyrics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I wanna be bigger, stronger, drive a faster car
-To take me anywhere in seconds
-To take me anywhere I wanna go
-And drive around a faster car
-I will settle for nothing less
-I will settle for nothing less
-I wanna be bigger, stronger, drive a faster car
-At the touch of a button
-I can go anywhere I wanna go
-And drive around a faster car
-I will settle for nothing less
-I will settle for nothing less
-I think I want to change my altitude
-I think I want to change my oxygen
-I think I want to change my air
-My atmosphere
-I wanna recharge
-I wanna be bigger, stronger, drive a faster car
-To take me anywhere in seconds
-To take me anywhere I wanna go
-And drive around my faster car
-I will settle for nothing less
-I will settle for nothing less
-I think I need to change my attitude
-I think I want to change my oxygen
-I think I want to change my air
-My atmosphere
-I wanna recharge
-Bigger and better
-Bigger and better
-Bigger and better
-Bigger and better
-Bigger, stronger, drive a faster car
-At the touch of a button
-I can go anywhere I wanna go</t>
+          <t>Leave me in the rain
+And I might still learn my lesson
+Leave me in the rain
+I will take it as a blessing
+I wanna see myself in your eyes
+Though I know it's gonna hurt like hell
+I wanna bathe in my own sweet lies
+Ain't nothing the truth won't tell
+Leave me in the rain
+And I might still learn my lesson
+Leave me in the rain
+I will take it as a blessing
+I wanna see myself in your eyes
+Though I know it's gonna hurt like hell
+I wanna bathe in my own sweet lies
+Ain't nothing the truth won't tell
+Leave me in the rain
+And I might still learn my lesson
+Leave me in the rain
+I will take it as a blessing
+I wanna see myself in your eyes
+Though I know it's gonna hurt like hell
+I wanna bathe in my own sweet lies
+Ain't nothing the truth won't tell</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Coldplay Lyrics
+Mauve Lyrics
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EP: "The Blue Room" (1999)</t>
+          <t>You May Also Like</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Submit CorrectionsWriter(s): Jonathan Mark Buckland, Christopher Anthony John Martin, William Champion, Guy Rupert Berryman</t>
+          <t>Submit Corrections</t>
         </is>
       </c>
     </row>
@@ -532,67 +521,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"Here Comes The Sun" lyrics</t>
+          <t>"1984" lyrics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>I'm gonna lift your spirits up
-You feel it rushing through your blood, yeah
-I'm gonna lift your spirits up
-You'll be okay, here comes the sun
-I'm gonna lift your spirits up
-You feel it rushing through your blood
-I'm gonna lift your spirits up
-You'll be okay, here comes the sun
-You'll be okay, here comes the sun
-You'll be okay, here comes the sun
-You'll be okay, here comes the sun
-I'm gonna lift
-You feel it rushing, hey
-I'm gonna lift
-You'll be okay, here comes the sun
-I'm gonna lift your spirits up
-You feel it rushing through your blood
-I'm gonna lift your spirits up
-You'll be okay, here comes the sun
-I'm gonna lift your spirits up
-You feel it rushing through your blood
-I'm gonna lift your spirits up
-You'll be okay, here comes the sun
-You'll be okay, here comes the sun
-You'll be okay, here comes the sun
-You'll be okay, here comes the sun</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mauve Lyrics
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>You May Also Like</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Submit CorrectionsWriter(s): Bjoern Steiner</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>"1984" lyrics</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>Chasing dreams
 Walked too far
@@ -633,19 +565,19 @@
 Like in 1984</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mauve Lyrics
 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>You May Also Like</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Submit CorrectionsWriter(s): Bjoern Steiner, Christian Rautzenberg, F4rgo</t>
         </is>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,52 +466,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"In The Rain" lyrics</t>
+          <t>"Faint" lyrics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leave me in the rain
-And I might still learn my lesson
-Leave me in the rain
-I will take it as a blessing
-I wanna see myself in your eyes
-Though I know it's gonna hurt like hell
-I wanna bathe in my own sweet lies
-Ain't nothing the truth won't tell
-Leave me in the rain
-And I might still learn my lesson
-Leave me in the rain
-I will take it as a blessing
-I wanna see myself in your eyes
-Though I know it's gonna hurt like hell
-I wanna bathe in my own sweet lies
-Ain't nothing the truth won't tell
-Leave me in the rain
-And I might still learn my lesson
-Leave me in the rain
-I will take it as a blessing
-I wanna see myself in your eyes
-Though I know it's gonna hurt like hell
-I wanna bathe in my own sweet lies
-Ain't nothing the truth won't tell</t>
+          <t>[Mike Shinoda:]
+I am a little bit of loneliness, a little bit of disregard
+Handful of complaints, but I can't help the fact that everyone can see these scars
+I am what I want you to want, what I want you to feel
+But it's like no matter what I do, I can't convince you, to just believe this is real
+So I let go watching you, turn your back like you always do
+Face away and pretend that I'm not
+But I'll be here 'cause you're all that I got
+[Chester Bennington:]
+I can't feel the way I did before
+Don't turn your back on me
+I won't be ignored
+Time won't heal this damage anymore
+Don't turn your back on me
+I won't be ignored
+[Mike Shinoda:]
+I am a little bit insecure, a little unconfident
+'Cause you don't understand I do what I can but sometimes I don't make sense
+I am what you never wanna say, but I've never had a doubt
+It's like no matter what I do I can't convince you for once just to hear me out
+So I let go watching you, turn your back like you always do
+Face away and pretend that I'm not
+But I'll be here 'cause you're all that I've got
+[Chester Bennington:]
+I can't feel the way I did before
+Don't turn your back on me
+I won't be ignored
+Time won't heal this damage anymore
+Don't turn your back on me
+I won't be ignored
+Now
+Hear me out now
+You're gonna listen to me, like it or not
+Right now
+Hear me out now
+You're gonna listen to me, like it or not
+Right now
+I can't feel the way I did before
+Don't turn your back on me
+I won't be ignored
+I can't feel the way I did before
+Don't turn your back on me
+I won't be ignored
+Time won't heal this damage anymore
+Don't turn your back on me
+I won't be ignored
+I can't feel
+Don't turn your back on me
+I won't be ignored
+Time won't heal
+Don't turn your back on me
+I won't be ignored</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mauve Lyrics
+Linkin Park Lyrics
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>You May Also Like</t>
+          <t>album: "Meteora" (2003)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Submit Corrections</t>
+          <t>Submit CorrectionsThanks to unicorn_of_andromeda for adding these lyrics.
+Thanks to steve, Deepto, Leen AM, eira rinmaya., Gonzalo Arca for correcting these lyrics.Writer(s): Brad Delson, Mike Shinoda, Joseph Hahn, Chester Charles Bennington, Robert G. Bourdon, David Farrell</t>
         </is>
       </c>
     </row>
@@ -521,65 +550,159 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"1984" lyrics</t>
+          <t>"What Ive Done" lyrics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chasing dreams
-Walked too far
-Like in 1984
-Take my hand
-Let's get lost
-Like in 1984
-Cold beer and blue nights
-The band plays till sunrise
-Yeah, oh, oh
-Chasing dreams
-Walked too far
-Like in 1984
-Take my hand
-Let's get lost
-Like in 1984
-Cold beer and blue nights
-The band plays till sunrise
-Like in 1984
-Like in 1984
-Like in, like in
-Like in 1984
-Like in 1984
-Like in 1984
-Chasing dreams
-Walked too far
-Like in 1984
-Take my hand
-Let's get lost
-Like in 1984
-Cold beer and blue nights
-The band plays till sunrise
-Like in 1984
-Like in 1984
-Like in, like in
-Like in 1984
-Like in 1984
-Like in 1984</t>
+          <t>In this farewell
+There's no blood
+There's no alibi
+'Cause I've drawn regret
+From the truth
+Of a thousand lies
+So let mercy come
+And wash away
+What I've done
+I'll face myself
+To cross out what I've become
+Erase myself
+And let go of what I've done
+Put to rest
+What you thought of me
+While I clean this slate
+With the hands of uncertainty
+So let mercy come
+And wash away
+What I've done
+I'll face myself
+To cross out what I've become
+Erase myself
+And let go of what I've done
+For what I've done
+I start again
+And whatever pain may come
+Today this ends
+I'm forgiving what I've done!
+I'll face myself
+To cross out what I've become
+Erase myself
+And let go of what I've done
+What I've done
+Forgiving what I've done</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mauve Lyrics
+Linkin Park Lyrics
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>You May Also Like</t>
+          <t>album: "Minutes To Midnight" (2007)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Submit CorrectionsWriter(s): Bjoern Steiner, Christian Rautzenberg, F4rgo</t>
+          <t>Submit CorrectionsThanks to Josh Schall for adding these lyrics.
+Thanks to Trish, Joe Gilbertson for correcting these lyrics.Writer(s): Brad Delson, Mike Shinoda, Joseph Hahn, Chester Charles Bennington, Robert G. Bourdon, David Farrell</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"Lost In The Echo" lyrics</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(yeah) (yo)
+You were that foundation
+Never gonna be another one, no.
+I followed, so taken
+So conditioned I could never let go
+Then sorrow, then sickness
+Then the shock when you flip it on me
+So hollow, so vicious
+So afraid I couldn't let myself see
+That I could never be held
+Back or up no, I'll hold myself
+Check the rep, yep you know mine well
+Forget the rest let them know my hell
+There and back yet my soul ain't sell
+Kept respect up,the best they fell,
+Let the rest be the tale they tell
+That I was there sayingâ¦
+[Chester:]
+In these promises broken
+Deep below
+Each word gets lost in the echo
+So one last lie I can see through
+This time I finally let you
+Go, go, go.
+Test my will, test my heart
+Let me tell you how the odds gonna stack up
+Y'all go hard, I go smart
+How's that working out for y'all in the back, huh?
+I've seen that frustration
+Been crossed and lost and told, "No."
+And I've come back unshaken
+Let down and lived and let go
+So you can let it be known
+I don't hold back, I hold my own
+I can't be mapped, I can't be cloned
+I can't C-flat, it ain't my tone
+I can't fall back, I came too far
+Hold myself up and love my scars
+Let the bells ring wherever they are
+'Cause I was there saying...
+[Chester:]
+In these promises broken
+Deep below
+Each word gets lost in the echo
+So one last lie I can see through
+This time I finally let you go!
+Go, go, go.
+No, you can tell 'em all now
+I don't back up, I don't back down
+I don't fold up, and I don't bow
+I don't roll over, don't know how
+I don't care where the enemies are
+Can't be stopped, all I know; go hard
+Won't forget how I got this far
+For every time sayingâ¦
+[Chester:]
+In these promises broken
+Deep below
+Each word gets lost in the echo
+So one last lie I can see through
+This time I finally let you
+Go, go, go (go, go, go)
+Go, go, go (go, go, go)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Linkin Park Lyrics
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Submit CorrectionsThanks to Brandon S for adding these lyrics.
+Thanks to Amber (Selena), Nick, Adrian M., CloudStrifeNL, soeman for correcting these lyrics.Writer(s): Mike Shinoda, Chester Charles Bennington, Joseph Hahn, Brad Delson, Dave Farrell, Robert G. Bourdon</t>
         </is>
       </c>
     </row>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -466,81 +466,73 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"Faint" lyrics</t>
+          <t>"I Will Follow" lyrics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Mike Shinoda:]
-I am a little bit of loneliness, a little bit of disregard
-Handful of complaints, but I can't help the fact that everyone can see these scars
-I am what I want you to want, what I want you to feel
-But it's like no matter what I do, I can't convince you, to just believe this is real
-So I let go watching you, turn your back like you always do
-Face away and pretend that I'm not
-But I'll be here 'cause you're all that I got
-[Chester Bennington:]
-I can't feel the way I did before
-Don't turn your back on me
-I won't be ignored
-Time won't heal this damage anymore
-Don't turn your back on me
-I won't be ignored
-[Mike Shinoda:]
-I am a little bit insecure, a little unconfident
-'Cause you don't understand I do what I can but sometimes I don't make sense
-I am what you never wanna say, but I've never had a doubt
-It's like no matter what I do I can't convince you for once just to hear me out
-So I let go watching you, turn your back like you always do
-Face away and pretend that I'm not
-But I'll be here 'cause you're all that I've got
-[Chester Bennington:]
-I can't feel the way I did before
-Don't turn your back on me
-I won't be ignored
-Time won't heal this damage anymore
-Don't turn your back on me
-I won't be ignored
-Now
-Hear me out now
-You're gonna listen to me, like it or not
-Right now
-Hear me out now
-You're gonna listen to me, like it or not
-Right now
-I can't feel the way I did before
-Don't turn your back on me
-I won't be ignored
-I can't feel the way I did before
-Don't turn your back on me
-I won't be ignored
-Time won't heal this damage anymore
-Don't turn your back on me
-I won't be ignored
-I can't feel
-Don't turn your back on me
-I won't be ignored
-Time won't heal
-Don't turn your back on me
-I won't be ignored</t>
+          <t>I will follow
+I was on the outside
+When you said, you said you needed me
+And I was looking at myself
+I was blind, I could not see
+A boy tries hard to be a man
+His mother takes him by his hand
+If he stops to think, he starts to cry
+Oh, why?
+If you walk away, walk away
+I walk away, walk away
+I will follow
+If you walk away, walk away
+I walk away, walk away
+I will follow
+I will follow
+I was on the inside
+When they pulled the four walls down
+I was looking through the window
+I was lost, I am found
+Walk away, walk away
+I walk away, walk away
+I will follow
+If you walk away, walk away
+I walk away, walk away
+I will follow
+I will follow
+Your eyes make a circle
+I see you when I go in there
+Your eyes
+Your, your, your eyes
+Your eyes, just give me
+Your, your, your eyes
+Mmm, mmm, mmm, mmm
+If you walk away, walk away
+I walk away, walk away
+I will follow
+If you walk away, walk away
+I walk away, walk away
+I will follow
+I will follow
+I will follow
+I will follow
+I will follow
+Follow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Linkin Park Lyrics
+U2 Lyrics
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Submit CorrectionsThanks to unicorn_of_andromeda for adding these lyrics.
-Thanks to steve, Deepto, Leen AM, eira rinmaya., Gonzalo Arca for correcting these lyrics.Writer(s): Brad Delson, Mike Shinoda, Joseph Hahn, Chester Charles Bennington, Robert G. Bourdon, David Farrell</t>
+          <t>Submit CorrectionsWriter(s): Adam Clayton, Larry Mullen, Dave Evans, Paul David Hewson</t>
         </is>
       </c>
     </row>
@@ -550,64 +542,75 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"What Ive Done" lyrics</t>
+          <t>"The Electric Co." lyrics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>In this farewell
-There's no blood
-There's no alibi
-'Cause I've drawn regret
-From the truth
-Of a thousand lies
-So let mercy come
-And wash away
-What I've done
-I'll face myself
-To cross out what I've become
-Erase myself
-And let go of what I've done
-Put to rest
-What you thought of me
-While I clean this slate
-With the hands of uncertainty
-So let mercy come
-And wash away
-What I've done
-I'll face myself
-To cross out what I've become
-Erase myself
-And let go of what I've done
-For what I've done
-I start again
-And whatever pain may come
-Today this ends
-I'm forgiving what I've done!
-I'll face myself
-To cross out what I've become
-Erase myself
-And let go of what I've done
-What I've done
-Forgiving what I've done</t>
+          <t>Boy, stupid boy
+Don't sit at the table
+Until you're able to
+Toy, broken toy
+Shout, shout, you're inside out
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+Red, running red
+Play for real
+Talk and feel
+A hole in your head
+You won't shout
+You're spoon fed
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+Two, three, four
+I can't stop
+Useless is the castle wall
+Useless is the metal wall
+He's gonna jump
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+If you don't know
+Electric Co
+Till someone leaves him below
+He's searched high and low
+A tap on the wrist and he'd know
+Somebody hear him
+Just leave him
+I can't find my way home
+I'm alone
+I've lost my way home
+You know and you know
+And you know and you know
+And you know</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Linkin Park Lyrics
+U2 Lyrics
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Submit CorrectionsThanks to Josh Schall for adding these lyrics.
-Thanks to Trish, Joe Gilbertson for correcting these lyrics.Writer(s): Brad Delson, Mike Shinoda, Joseph Hahn, Chester Charles Bennington, Robert G. Bourdon, David Farrell</t>
+          <t>Submit CorrectionsWriter(s): Larry Mullen, Paul David Hewson, Adam Clayton, Dave Evans, Brian Peter George Eno</t>
         </is>
       </c>
     </row>
@@ -617,92 +620,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"Lost In The Echo" lyrics</t>
+          <t>"Twilight" lyrics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(yeah) (yo)
-You were that foundation
-Never gonna be another one, no.
-I followed, so taken
-So conditioned I could never let go
-Then sorrow, then sickness
-Then the shock when you flip it on me
-So hollow, so vicious
-So afraid I couldn't let myself see
-That I could never be held
-Back or up no, I'll hold myself
-Check the rep, yep you know mine well
-Forget the rest let them know my hell
-There and back yet my soul ain't sell
-Kept respect up,the best they fell,
-Let the rest be the tale they tell
-That I was there sayingâ¦
-[Chester:]
-In these promises broken
-Deep below
-Each word gets lost in the echo
-So one last lie I can see through
-This time I finally let you
-Go, go, go.
-Test my will, test my heart
-Let me tell you how the odds gonna stack up
-Y'all go hard, I go smart
-How's that working out for y'all in the back, huh?
-I've seen that frustration
-Been crossed and lost and told, "No."
-And I've come back unshaken
-Let down and lived and let go
-So you can let it be known
-I don't hold back, I hold my own
-I can't be mapped, I can't be cloned
-I can't C-flat, it ain't my tone
-I can't fall back, I came too far
-Hold myself up and love my scars
-Let the bells ring wherever they are
-'Cause I was there saying...
-[Chester:]
-In these promises broken
-Deep below
-Each word gets lost in the echo
-So one last lie I can see through
-This time I finally let you go!
-Go, go, go.
-No, you can tell 'em all now
-I don't back up, I don't back down
-I don't fold up, and I don't bow
-I don't roll over, don't know how
-I don't care where the enemies are
-Can't be stopped, all I know; go hard
-Won't forget how I got this far
-For every time sayingâ¦
-[Chester:]
-In these promises broken
-Deep below
-Each word gets lost in the echo
-So one last lie I can see through
-This time I finally let you
-Go, go, go (go, go, go)
-Go, go, go (go, go, go)</t>
+          <t>I look into his eyes
+They're closed but I see something
+A teacher told me why
+I laugh when old men cry
+My body grows and grows
+It frightens me you know
+The old man tried to walk me home
+I thought he should have known
+Twilight...
+Twilight, lost my way
+Twilight, can't find my way
+In the shadow boy meets man
+In the shadow boy meets man
+In the shadow boy meets man
+In the shadow boy meets man
+I'm running in the rain
+I'm caught in a late night play
+It's all; it's everything
+I'm soaking through the skin
+Twilight...darkened day
+Twilight...lost my way
+Twilight...night and day
+Twilight...can't find my way
+Can't find your way
+Can't find my way
+Can't find your way
+Twilight...darkened day
+Twilight...lost my way
+Twilight...night and day
+Twilight...can't find my way
+In the shadow boy meets man
+In the shadow boy meets man
+In the shadow boy meets man
+In the shadow boy meets man</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Linkin Park Lyrics
+U2 Lyrics
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Submit CorrectionsThanks to Brandon S for adding these lyrics.
-Thanks to Amber (Selena), Nick, Adrian M., CloudStrifeNL, soeman for correcting these lyrics.Writer(s): Mike Shinoda, Chester Charles Bennington, Joseph Hahn, Brad Delson, Dave Farrell, Robert G. Bourdon</t>
+          <t>Submit Corrections</t>
         </is>
       </c>
     </row>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -466,73 +466,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"I Will Follow" lyrics</t>
+          <t>"Fight Fire With Fire" lyrics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I will follow
-I was on the outside
-When you said, you said you needed me
-And I was looking at myself
-I was blind, I could not see
-A boy tries hard to be a man
-His mother takes him by his hand
-If he stops to think, he starts to cry
-Oh, why?
-If you walk away, walk away
-I walk away, walk away
-I will follow
-If you walk away, walk away
-I walk away, walk away
-I will follow
-I will follow
-I was on the inside
-When they pulled the four walls down
-I was looking through the window
-I was lost, I am found
-Walk away, walk away
-I walk away, walk away
-I will follow
-If you walk away, walk away
-I walk away, walk away
-I will follow
-I will follow
-Your eyes make a circle
-I see you when I go in there
-Your eyes
-Your, your, your eyes
-Your eyes, just give me
-Your, your, your eyes
-Mmm, mmm, mmm, mmm
-If you walk away, walk away
-I walk away, walk away
-I will follow
-If you walk away, walk away
-I walk away, walk away
-I will follow
-I will follow
-I will follow
-I will follow
-I will follow
-Follow</t>
+          <t>Do unto others as they've done to you
+But what the hell is this world coming to?
+Blow the universe into nothingness
+Nuclear warfare shall lay us to rest
+Fight fire with fire
+Ending is near
+Fight fire with fire
+Bursting with fear
+We all shall die
+Time is like a fuse, short and burning fast
+Armageddon's here, like said in the past
+Fight fire with fire
+Ending is near
+Fight fire with fire
+Bursting with fear
+Soon to fill our lungs, the hot winds of death
+The gods are laughing, so take your last breath
+Fight fire with fire
+Ending is near
+Fight fire with fire
+Bursting with fear
+Fight fire with fire
+Fight fire with fire
+Fight fire with fire
+Fight fire with fire
+Fight fire with fire
+Fight fire with fire
+Fight fire with fire
+Fight fire with fire
+Fight</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-U2 Lyrics
+Metallica Lyrics
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Submit CorrectionsWriter(s): Adam Clayton, Larry Mullen, Dave Evans, Paul David Hewson</t>
+          <t>Submit CorrectionsThanks to Grenas for correcting these lyrics.Writer(s): Lars Ulrich, James Alan Hetfield, Clifford Lee Burton</t>
         </is>
       </c>
     </row>
@@ -542,75 +527,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"The Electric Co." lyrics</t>
+          <t>"One" lyrics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Boy, stupid boy
-Don't sit at the table
-Until you're able to
-Toy, broken toy
-Shout, shout, you're inside out
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-Red, running red
-Play for real
-Talk and feel
-A hole in your head
-You won't shout
-You're spoon fed
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-Two, three, four
-I can't stop
-Useless is the castle wall
-Useless is the metal wall
-He's gonna jump
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-If you don't know
-Electric Co
-Till someone leaves him below
-He's searched high and low
-A tap on the wrist and he'd know
-Somebody hear him
-Just leave him
-I can't find my way home
-I'm alone
-I've lost my way home
-You know and you know
-And you know and you know
-And you know</t>
+          <t>I can't remember anything
+Can't tell if this is true or dream
+Deep down inside I feel the scream
+This terrible silence stops me
+Now that the war is through with me
+I'm waking up, I cannot see
+That there's not much left of me
+Nothing is real but pain now
+Hold my breath as I wish for death
+Oh please, God, wake me
+Back in the womb it's much too real
+In pumps life that I must feel
+But can't look forward to reveal
+Look to the time when I'll live
+Fed through the tube that sticks in me
+Just like a wartime novelty
+Tied to machines that make me be
+Cut this life off from me
+Hold my breath as I wish for death
+Oh please, God, wake me
+Now the world is gone, I'm just one
+Oh God, help me
+Hold my breath as I wish for death
+Oh please, God, help me
+Darkness
+Imprisoning me
+All that I see
+Absolute horror
+I cannot live
+I cannot die
+Trapped in myself
+Body my holding cell
+Landmine
+Has taken my sight
+Taken my speech
+Taken my hearing
+Taken my arms
+Taken my legs
+Taken my soul
+Left me with life in hell</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-U2 Lyrics
+Metallica Lyrics
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Submit CorrectionsWriter(s): Larry Mullen, Paul David Hewson, Adam Clayton, Dave Evans, Brian Peter George Eno</t>
+          <t>Submit CorrectionsThanks to Payton for correcting these lyrics.Writer(s): Lars Ulrich, James Alan Hetfield</t>
         </is>
       </c>
     </row>
@@ -620,62 +598,84 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"Twilight" lyrics</t>
+          <t>"Fuel" lyrics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I look into his eyes
-They're closed but I see something
-A teacher told me why
-I laugh when old men cry
-My body grows and grows
-It frightens me you know
-The old man tried to walk me home
-I thought he should have known
-Twilight...
-Twilight, lost my way
-Twilight, can't find my way
-In the shadow boy meets man
-In the shadow boy meets man
-In the shadow boy meets man
-In the shadow boy meets man
-I'm running in the rain
-I'm caught in a late night play
-It's all; it's everything
-I'm soaking through the skin
-Twilight...darkened day
-Twilight...lost my way
-Twilight...night and day
-Twilight...can't find my way
-Can't find your way
-Can't find my way
-Can't find your way
-Twilight...darkened day
-Twilight...lost my way
-Twilight...night and day
-Twilight...can't find my way
-In the shadow boy meets man
-In the shadow boy meets man
-In the shadow boy meets man
-In the shadow boy meets man</t>
+          <t>Gimme fuel
+Gimme fire
+Gimme that which I desire
+Ooh!
+Yeah!
+Turn on... I see red
+Adrenaline crash and crack my head
+Nitro junkie, paint me dead
+And I see red
+One hundred plus through black and white
+War horse, warhead
+Fuck 'em man, white-knuckle tight
+Through black and white
+On I burn
+Fuel is pumping engines
+Burning hard, loose and clean
+And on I burn
+Churning my direction
+Quench my thirst with gasoline
+So gimme fuel
+Gimme fire
+Gimme that which I desire
+Ooh
+Turn on beyond the bone
+Swallow future, spit out home
+Burn your face upon the chrome
+Yeah!
+Take the corner, join the crash
+Headlights, head on, headlines
+Another junkie lives too fast
+Yeah lives way too fast, fast, fast, oohhOH!
+On I burn
+Fuel is pumping engines
+Burning hard, loose and clean
+And on I burn
+Churning my direction
+Quench my thirst with gasoline
+So gimme fuel
+Gimme fire
+Gimme that which I desire
+Yeah-heah
+White knuckle tight!
+Gimme fuel
+Gimme fire
+My desire
+On I burn
+Fuel is pumping engines
+Burning hard, loose and clean
+And on I burn
+Churning my direction
+Quench my thirst with gasoline
+Gimme fuel
+Gimme fire
+Gimme that which I desire
+Ooh
+On I burn</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-U2 Lyrics
+Metallica Lyrics
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Submit Corrections</t>
+          <t>Submit CorrectionsThanks to chloe for correcting these lyrics.Writer(s): Eliot Kennedy, Bryan Adams</t>
         </is>
       </c>
     </row>

--- a/datasets/lyrics_data.xlsx
+++ b/datasets/lyrics_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,216 +466,48 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"Fight Fire With Fire" lyrics</t>
+          <t>"Dont Panic" lyrics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Do unto others as they've done to you
-But what the hell is this world coming to?
-Blow the universe into nothingness
-Nuclear warfare shall lay us to rest
-Fight fire with fire
-Ending is near
-Fight fire with fire
-Bursting with fear
-We all shall die
-Time is like a fuse, short and burning fast
-Armageddon's here, like said in the past
-Fight fire with fire
-Ending is near
-Fight fire with fire
-Bursting with fear
-Soon to fill our lungs, the hot winds of death
-The gods are laughing, so take your last breath
-Fight fire with fire
-Ending is near
-Fight fire with fire
-Bursting with fear
-Fight fire with fire
-Fight fire with fire
-Fight fire with fire
-Fight fire with fire
-Fight fire with fire
-Fight fire with fire
-Fight fire with fire
-Fight fire with fire
-Fight</t>
+          <t>Bones sinking like stones
+All that we fought for
+Homes, places we've grown
+All of us are done for
+And we live in a beautiful world
+Yeah we do, yeah we do
+We live in a beautiful world
+Bones sinking like stones
+All that we fought for
+And homes, places we've grown
+All of us are done for
+And we live in a beautiful world
+Yeah we do, yeah we do
+We live in a beautiful world
+And we live in a beautiful world
+Yeah we do, yeah we do
+We live in a beautiful world
+Oh, all that I know
+There's nothing here to run from
+'Cause yeah everybody here's got somebody to lean on</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Metallica Lyrics
+Coldplay Lyrics
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>album: "Ride The Lightning" (1984)</t>
+          <t>EP: "The Blue Room" (1999)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Submit CorrectionsThanks to Grenas for correcting these lyrics.Writer(s): Lars Ulrich, James Alan Hetfield, Clifford Lee Burton</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>"One" lyrics</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>I can't remember anything
-Can't tell if this is true or dream
-Deep down inside I feel the scream
-This terrible silence stops me
-Now that the war is through with me
-I'm waking up, I cannot see
-That there's not much left of me
-Nothing is real but pain now
-Hold my breath as I wish for death
-Oh please, God, wake me
-Back in the womb it's much too real
-In pumps life that I must feel
-But can't look forward to reveal
-Look to the time when I'll live
-Fed through the tube that sticks in me
-Just like a wartime novelty
-Tied to machines that make me be
-Cut this life off from me
-Hold my breath as I wish for death
-Oh please, God, wake me
-Now the world is gone, I'm just one
-Oh God, help me
-Hold my breath as I wish for death
-Oh please, God, help me
-Darkness
-Imprisoning me
-All that I see
-Absolute horror
-I cannot live
-I cannot die
-Trapped in myself
-Body my holding cell
-Landmine
-Has taken my sight
-Taken my speech
-Taken my hearing
-Taken my arms
-Taken my legs
-Taken my soul
-Left me with life in hell</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Metallica Lyrics
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>album: "...And Justice For All" (1988)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Submit CorrectionsThanks to Payton for correcting these lyrics.Writer(s): Lars Ulrich, James Alan Hetfield</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>"Fuel" lyrics</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gimme fuel
-Gimme fire
-Gimme that which I desire
-Ooh!
-Yeah!
-Turn on... I see red
-Adrenaline crash and crack my head
-Nitro junkie, paint me dead
-And I see red
-One hundred plus through black and white
-War horse, warhead
-Fuck 'em man, white-knuckle tight
-Through black and white
-On I burn
-Fuel is pumping engines
-Burning hard, loose and clean
-And on I burn
-Churning my direction
-Quench my thirst with gasoline
-So gimme fuel
-Gimme fire
-Gimme that which I desire
-Ooh
-Turn on beyond the bone
-Swallow future, spit out home
-Burn your face upon the chrome
-Yeah!
-Take the corner, join the crash
-Headlights, head on, headlines
-Another junkie lives too fast
-Yeah lives way too fast, fast, fast, oohhOH!
-On I burn
-Fuel is pumping engines
-Burning hard, loose and clean
-And on I burn
-Churning my direction
-Quench my thirst with gasoline
-So gimme fuel
-Gimme fire
-Gimme that which I desire
-Yeah-heah
-White knuckle tight!
-Gimme fuel
-Gimme fire
-My desire
-On I burn
-Fuel is pumping engines
-Burning hard, loose and clean
-And on I burn
-Churning my direction
-Quench my thirst with gasoline
-Gimme fuel
-Gimme fire
-Gimme that which I desire
-Ooh
-On I burn</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Metallica Lyrics
-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>album: "Reload" (1997)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Submit CorrectionsThanks to chloe for correcting these lyrics.Writer(s): Eliot Kennedy, Bryan Adams</t>
+          <t>Submit CorrectionsWriter(s): Jonathan Mark Buckland, Christopher Anthony John Martin, William Champion, Guy Rupert Berryman</t>
         </is>
       </c>
     </row>
